--- a/src/test/resources/testCases/MemberData.xlsx
+++ b/src/test/resources/testCases/MemberData.xlsx
@@ -1,25 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1BC28-5338-410E-8FCA-F714CBB43E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="10">
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Member Name</t>
+  </si>
+  <si>
+    <t>BRENNEN NUETZMAN KNUPP</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>V88011077</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>11/17/1932</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +372,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testCases/MemberData.xlsx
+++ b/src/test/resources/testCases/MemberData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="18">
   <si>
     <t>Member ID</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>11/17/1932</t>
+  </si>
+  <si>
+    <t>Primary Language</t>
+  </si>
+  <si>
+    <t>V88011072</t>
+  </si>
+  <si>
+    <t>CARLISLE KNOWLES</t>
+  </si>
+  <si>
+    <t>01/16/1940</t>
+  </si>
+  <si>
+    <t>V88011134</t>
+  </si>
+  <si>
+    <t>CHRYSSA STAMMEL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>08/17/1938</t>
   </si>
 </sst>
 </file>
@@ -399,21 +423,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>

--- a/src/test/resources/testCases/MemberData.xlsx
+++ b/src/test/resources/testCases/MemberData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1BC28-5338-410E-8FCA-F714CBB43E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB9B94-3C3C-490D-908E-99661E84FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Member ID</t>
   </si>
@@ -36,49 +36,49 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Member Name</t>
   </si>
   <si>
-    <t>BRENNEN NUETZMAN KNUPP</t>
+    <t>Primary Language</t>
+  </si>
+  <si>
+    <t>V88011031</t>
+  </si>
+  <si>
+    <t>V88011033</t>
+  </si>
+  <si>
+    <t>V88011150</t>
+  </si>
+  <si>
+    <t>FELICIANA SIU</t>
+  </si>
+  <si>
+    <t>FELICIANA BOSS LAATSCH</t>
+  </si>
+  <si>
+    <t>FIORALBA EVJEN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>01/21/1943</t>
+  </si>
+  <si>
+    <t>08/23/1961</t>
+  </si>
+  <si>
+    <t>02/06/1935</t>
+  </si>
+  <si>
+    <t>KORE</t>
+  </si>
+  <si>
+    <t>ENGL</t>
   </si>
   <si>
     <t>SPAN</t>
-  </si>
-  <si>
-    <t>V88011077</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>11/17/1932</t>
-  </si>
-  <si>
-    <t>Primary Language</t>
-  </si>
-  <si>
-    <t>V88011072</t>
-  </si>
-  <si>
-    <t>CARLISLE KNOWLES</t>
-  </si>
-  <si>
-    <t>01/16/1940</t>
-  </si>
-  <si>
-    <t>V88011134</t>
-  </si>
-  <si>
-    <t>CHRYSSA STAMMEL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>08/17/1938</t>
   </si>
 </sst>
 </file>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -423,24 +423,58 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testCases/MemberData.xlsx
+++ b/src/test/resources/testCases/MemberData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\802072\git\GuidingCare_CaptureMemberData\src\test\resources\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB9B94-3C3C-490D-908E-99661E84FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F12C1B-317B-4097-96B6-DD9913D674FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Member ID</t>
   </si>
@@ -42,43 +42,94 @@
     <t>Primary Language</t>
   </si>
   <si>
+    <t>V88011207</t>
+  </si>
+  <si>
+    <t>DIONE BUSCHMANN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>06/10/1970</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>V88011170</t>
+  </si>
+  <si>
+    <t>V88006379</t>
+  </si>
+  <si>
+    <t>V88011035</t>
+  </si>
+  <si>
     <t>V88011031</t>
   </si>
   <si>
-    <t>V88011033</t>
+    <t>V88011225</t>
   </si>
   <si>
     <t>V88011150</t>
   </si>
   <si>
+    <t>V88011081</t>
+  </si>
+  <si>
+    <t>ENRICA BRZENK</t>
+  </si>
+  <si>
+    <t>ENZO HAGOPIAN</t>
+  </si>
+  <si>
+    <t>ETHELENE MEENACH</t>
+  </si>
+  <si>
     <t>FELICIANA SIU</t>
   </si>
   <si>
-    <t>FELICIANA BOSS LAATSCH</t>
+    <t>FIDDA ZEBRACKI</t>
   </si>
   <si>
     <t>FIORALBA EVJEN</t>
   </si>
   <si>
-    <t>F</t>
+    <t>FREEDA ENTWISTLE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>06/15/1936</t>
+  </si>
+  <si>
+    <t>12/04/1952</t>
+  </si>
+  <si>
+    <t>08/20/1943</t>
   </si>
   <si>
     <t>01/21/1943</t>
   </si>
   <si>
-    <t>08/23/1961</t>
+    <t>03/05/1958</t>
   </si>
   <si>
     <t>02/06/1935</t>
   </si>
   <si>
+    <t>08/26/1944</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
     <t>KORE</t>
   </si>
   <si>
     <t>ENGL</t>
-  </si>
-  <si>
-    <t>SPAN</t>
   </si>
 </sst>
 </file>
@@ -397,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,53 +479,121 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testCases/MemberData.xlsx
+++ b/src/test/resources/testCases/MemberData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="42">
   <si>
     <t>Member ID</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t>ENGL</t>
+  </si>
+  <si>
+    <t>V88011151</t>
+  </si>
+  <si>
+    <t>GAYNOR RENZELLA PUOTINEN</t>
+  </si>
+  <si>
+    <t>09/07/1933</t>
+  </si>
+  <si>
+    <t>ALT311370</t>
+  </si>
+  <si>
+    <t>GCCS-24201 TM-02</t>
+  </si>
+  <si>
+    <t>02/02/2002</t>
+  </si>
+  <si>
+    <t>Not Available</t>
   </si>
 </sst>
 </file>
@@ -479,19 +500,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
